--- a/Results/documentation of the RAs (in corpus for subject 080200).xlsx
+++ b/Results/documentation of the RAs (in corpus for subject 080200).xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,8 +556,10 @@
           <t>机械工程</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>2019</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -637,8 +643,10 @@
           <t>机械工程</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>2020</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -722,8 +730,10 @@
           <t>机械工程</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>2019</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -807,8 +817,10 @@
           <t>机械设计及理论</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>39934</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>39934</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -892,8 +904,10 @@
           <t>机械制造及其自动化</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>43290</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>43290</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -977,8 +991,10 @@
           <t>机械设计及理论</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>44040</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>44040</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1034,7 +1050,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Control chart monitoring of wind turbine generators using the statistical inertia of a wind farm average</t>
+          <t>An investigation on the anti-loosening characteristics of threaded fasteners under vibratory conditions</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1044,7 +1060,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mechanical engineering</t>
+          <t xml:space="preserve">Mechanical Engineering </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1052,22 +1068,14 @@
           <t>机械工程</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Industrial engineering</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>工业工程</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>2018.2</v>
+        <v>2010</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Rewable Energy</t>
+          <t>Mechanism and Machine Theory</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1082,22 +1090,18 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>P. Cambron</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>加拿大</t>
-        </is>
-      </c>
+          <t>Anirban Bhattacharya</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>This paper proposed a simple method for monitoring wind turbine in big farm</t>
+          <t>The effects of several typical bolt loosing methods were compared through experiments in this paper.</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>吴振宇</t>
+          <t>林清源</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1119,7 +1123,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A combined mono- and multi-turbine approach for fault indicator synthesis and wind turbine monitoring using SCADA data</t>
+          <t>Effect of pitch difference between the bolt-nut connections upon the anti-loosening performance and fatigue life</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1129,7 +1133,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mechanical engineering</t>
+          <t xml:space="preserve">Mechanical Engineering </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1137,22 +1141,14 @@
           <t>机械工程</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Industrial engineering</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>工业工程</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>2019.4</v>
+        <v>2016</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ISA Transactions</t>
+          <t>Materials and Design</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1167,22 +1163,18 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Alexis Lebranchu</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>法国</t>
-        </is>
-      </c>
+          <t>Nao-Aki Noda</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>This paper proposed a monitoring procedure combining mono and multi-turbine, and implement multi-variates monitoring.</t>
+          <t>The most desirable pitch difference required for improving both anti-loosening and fatigue life is proposed in this paper.</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>吴振宇</t>
+          <t>林清源</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1204,7 +1196,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wind turbine fault detection based on expanded linguistic terms and rules using non-singleton fuzzy logic</t>
+          <t>Investigation the effect of tightening torque on the fatigue strength of double lap simple bolted and hybrid (bolted–bonded) joints using volumetric method</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1214,7 +1206,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mechanical engineering</t>
+          <t xml:space="preserve">Mechanical Engineering </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1222,22 +1214,14 @@
           <t>机械工程</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Industrial engineering</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>工业工程</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>2020.3</v>
+        <v>2014</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Applied Energy</t>
+          <t>Materials and Design</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1252,22 +1236,18 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Fuming Qu</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>中国</t>
-        </is>
-      </c>
+          <t>F. Esmaeili</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>This paper relized the fault detection of wind turbine using non-singleton fuzzy logic.</t>
+          <t>The accuracy of different bolt life prediction methods was studied in this paper.</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>吴振宇</t>
+          <t>林清源</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1289,7 +1269,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Optimal Time Interval Between Periodic Inspections for a Two-Component Cold Standby Multistate System</t>
+          <t>Machine learning applied in production planning and control:a state‑of‑the‑art in the era of industry 4.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1299,7 +1279,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mechanical engineering</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1307,29 +1287,19 @@
           <t>机械工程</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Industrial Engineering</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>工业工程</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2017.04.26</t>
-        </is>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>43841</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>IEEE TRANSACTIONS ON RELIABILITY</t>
+          <t>Journal of Intelligent Manufacturing</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1339,22 +1309,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Angelica Alebrant Mendes</t>
+          <t>Juan Pablo Usuga Cadavid</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>巴西</t>
+          <t>France</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>提出了一种多状态冗余系统的最佳检查时间间隔的设计方法</t>
+          <t>this paper presents a state-o f-the-art of Machine Learning （ML）ML-aided  Production Planning and Control （PPC） (ML-PPC) done through a systematic literature review analyzing 93 recent research application articles</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>陈兆祥</t>
+          <t>许鸿伟</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1376,7 +1346,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Reliability optimization of series-parallel systems with K-mixed redundancy strategy</t>
+          <t>Imbalanced fault diagnosis of rotating machinery via multi-domain feature extraction and cost-sensitive learning</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1386,7 +1356,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mechanical engineering</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1394,29 +1364,19 @@
           <t>机械工程</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Industrial Engineering</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>工业工程</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2018.09.09</t>
-        </is>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>43813</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Reliability Engineering and System Safety</t>
+          <t>Journal of Intelligent Manufacturing</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1426,22 +1386,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Abdossaber Peiravi</t>
+          <t>Tangbin Xia</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>伊朗</t>
+          <t>China</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>提出了一种名为K-mixed的新型冗余分配方法</t>
+          <t>Newly proposed PHM methodologies are systematically reviewed in this paper: as the decision basis, an operating load based forecasting algorithm is proposed for machine health prognosis</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>陈兆祥</t>
+          <t>许鸿伟</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1463,80 +1423,581 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t xml:space="preserve">Manufacturing paradigm-oriented PHM methodologies for cyber-physical systems
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>080200</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>机械工程</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>42948</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Journal of Intelligent Manufacturing</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Qifa Xu</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>How to improve diagnosis accuracy remains an open issue. To this end, we develop a novel framework through combined use of multi-domain vibration feature extraction, feature selection and cost-sensitive learning method</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>许鸿伟</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RA13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Control chart monitoring of wind turbine generators using the statistical inertia of a wind farm average</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>080200</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mechanical engineering</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>机械工程</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Industrial engineering</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>工业工程</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Rewable Energy</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>P. Cambron</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>加拿大</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>This paper proposed a simple method for monitoring wind turbine in big farm</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>吴振宇</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RA14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>A combined mono- and multi-turbine approach for fault indicator synthesis and wind turbine monitoring using SCADA data</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>080200</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mechanical engineering</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>机械工程</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Industrial engineering</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>工业工程</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ISA Transactions</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Alexis Lebranchu</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>法国</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>This paper proposed a monitoring procedure combining mono and multi-turbine, and implement multi-variates monitoring.</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>吴振宇</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RA15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Wind turbine fault detection based on expanded linguistic terms and rules using non-singleton fuzzy logic</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>080200</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mechanical engineering</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>机械工程</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Industrial engineering</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>工业工程</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Applied Energy</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Fuming Qu</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>This paper relized the fault detection of wind turbine using non-singleton fuzzy logic.</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>吴振宇</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RA16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Optimal Time Interval Between Periodic Inspections for a Two-Component Cold Standby Multistate System</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>080200</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mechanical engineering</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>机械工程</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Industrial Engineering</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>工业工程</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>42851</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>IEEE TRANSACTIONS ON RELIABILITY</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Angelica Alebrant Mendes</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>巴西</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>提出了一种多状态冗余系统的最佳检查时间间隔的设计方法</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>陈兆祥</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RA17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Reliability optimization of series-parallel systems with K-mixed redundancy strategy</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>080200</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mechanical engineering</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>机械工程</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Industrial Engineering</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>工业工程</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>43352</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Reliability Engineering and System Safety</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Abdossaber Peiravi</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>伊朗</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>提出了一种名为K-mixed的新型冗余分配方法</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>陈兆祥</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RA18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>The evolution of system reliability optimization</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>080200</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Mechanical engineering</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>机械工程</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Industrial Engineering</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>工业工程</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2018.09.08</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="H19" s="2" t="n">
+        <v>43351</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Reliability Engineering and System Safety</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>SCI</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>David W. Coit</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>美国</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>提出了一种主动型的可靠性-冗余分配方法</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>陈兆祥</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>M31</t>
         </is>
